--- a/Documetation/Test results.xlsx
+++ b/Documetation/Test results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Фунциональность</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Легкость в доступе ко всему функционалу приложения</t>
   </si>
   <si>
-    <t>Выполнение операций за t &lt; 1c</t>
-  </si>
-  <si>
     <t>Возникновение непредвиденных ошибок и логических несостыковок</t>
   </si>
   <si>
@@ -136,13 +133,52 @@
   </si>
   <si>
     <t>Отметка тестировщика</t>
+  </si>
+  <si>
+    <t>тест пройден</t>
+  </si>
+  <si>
+    <t>Протестировано на Windows 7 и Ubuntu</t>
+  </si>
+  <si>
+    <t>Выполнение операций за t &lt; 1мc</t>
+  </si>
+  <si>
+    <t>Протестирована работа с большим объёмом данных</t>
+  </si>
+  <si>
+    <t>Все поля ввода или выбора данных подписаны</t>
+  </si>
+  <si>
+    <t>Созданы свои файлы инициализации и проверены все варианты использования</t>
+  </si>
+  <si>
+    <t>Проверены все основные и альтернативные потоки событий</t>
+  </si>
+  <si>
+    <t>За время тестирования конфликтов не обнаружено</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>В полной мере соответствует ожидаемым результытам, описанным в тестовом плне</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>В ходе выполнения всех тестовых сценариев убедились в полной работоспособности и корректности реализованного функционала приложения. Все тесты пройдены успешно.</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +190,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -308,29 +353,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,60 +402,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,6 +468,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -689,370 +766,391 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="33"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="33"/>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>20</v>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="33"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="33"/>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>20</v>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" customHeight="1">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="52.5" customHeight="1">
+      <c r="E20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="98.25" customHeight="1">
+      <c r="E21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
